--- a/biology/Botanique/Vesse-de-loup/Vesse-de-loup.xlsx
+++ b/biology/Botanique/Vesse-de-loup/Vesse-de-loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vesses-de-loup, ou pets-de-loup au Canada, sont des champignons appartenant à différents genres, très répandus dans les prés et les bois. Elles sont facilement reconnaissables à l'absence de pied, ou du moins d'un pied et d'un chapeau séparés, à leur couleur blanche ou grisâtre, et au fait que, lorsqu'elles sont vieilles, elles se transforment en sacs remplis d'une poussière brune qui est évacuée quand on appuie dessus.
-Le nom grec scientifique du principal genre de ces champignons, Lycoperdon, signifie littéralement « pet de loup », nom vernaculaire de ces espèces fongiques. Une « vesse » désigne en vieux français argotique un gaz intestinal silencieux et malodorant[2]. L'origine de ce nom véhiculé par l'imaginaire populaire est peut-être liée à la poussière qu'émet ce champignon, laquelle dégage une odeur âcre comme la flatulence du canidé ou du gaz relâché par ses excréments, considérés comme mortels (voir la réputation du loup dans la culture), les vesses-de-loup pouvant se confondre avec les jeunes Amanites vénéneuses en boule encore renfermées dans leur volve[3]. Les Britanniques les appellent pour leur part puffballs, du fait qu'elles laissent jaillir des bouffées de « fumée » lorsqu'on les presse. Quant aux Japonais, ils les nomment simplement hokori-také, « champignons à poussière ».
+Le nom grec scientifique du principal genre de ces champignons, Lycoperdon, signifie littéralement « pet de loup », nom vernaculaire de ces espèces fongiques. Une « vesse » désigne en vieux français argotique un gaz intestinal silencieux et malodorant. L'origine de ce nom véhiculé par l'imaginaire populaire est peut-être liée à la poussière qu'émet ce champignon, laquelle dégage une odeur âcre comme la flatulence du canidé ou du gaz relâché par ses excréments, considérés comme mortels (voir la réputation du loup dans la culture), les vesses-de-loup pouvant se confondre avec les jeunes Amanites vénéneuses en boule encore renfermées dans leur volve. Les Britanniques les appellent pour leur part puffballs, du fait qu'elles laissent jaillir des bouffées de « fumée » lorsqu'on les presse. Quant aux Japonais, ils les nomment simplement hokori-také, « champignons à poussière ».
 Elles sont parfois confondues avec les Sclérodermes, qui ont une forme semblable aux vesses mais s'en distinguent par une enveloppe épaisse, verruqueuse.
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vesses-de-loup sont des champignons « gastéromycètes » (les guillemets indiquent que le suffixe utilisé est impropre, car il ne s'agit pas d'une classe), dont la particularité est que leur basidiome (appareil reproducteur des basidiomycètes contenant les spores) se trouve protégé par une membrane appelée péridium. L'hyménium lui-même est appelé gleba. C'est cette gléba qui, en vieillissant, se transforme d'abord en une confiture olivâtre peu appétissante, puis en poussière qui jaillit à la moindre pression.
 Les genres se différencient par la façon dont le péridium se déchire : soit il se forme une ouverture au sommet (l'ostiole apical), transformant le champignon en « volcan » (Lycoperdon et Bovista), soit la déchirure est plus irrégulière (Calvatia et Langermannia). Selon la classification phylogénétique, les gastéromycètes formeraient le stade le plus évolué des basidiomycètes[réf. nécessaire].
 Elles brunissent peu à peu à maturité.
-Diverses espèces mycophages appartenant à plusieurs familles de coléoptères se développent sur les vesses de loup (Lycoperdacées), notamment le cryptophagidé Cryptophagus lycoperdi, les adultes et larves de Caenocara bovistae (Anobiidae), Lycoperdina bovistae, Endomychus coccineus et Mycetina cruciata (Endomychidae)[4].
+Diverses espèces mycophages appartenant à plusieurs familles de coléoptères se développent sur les vesses de loup (Lycoperdacées), notamment le cryptophagidé Cryptophagus lycoperdi, les adultes et larves de Caenocara bovistae (Anobiidae), Lycoperdina bovistae, Endomychus coccineus et Mycetina cruciata (Endomychidae).
 En principe, aucune vesse-de-loup n'est toxique. Cependant, l'intérêt gastronomique du champignon est limité, d'autant que seuls les spécimens très jeunes peuvent être consommés tant que l'intérieur est blanc. Une exception : la vesse-de-loup géante.
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bovista plumbea : boviste plombée. Assez commun, ce champignon se présente comme une sorte de minuscule pomme de terre, dont il a un peu la forme. La partie externe de son péridium beige se craquelle peu à peu, laissant apparaître une pellicule gris plombé, d'où son nom.
 Calvatia excipuliformis : calvatie en coupe. Doit son nom au fait que son péridium se déchire en formant une sorte de coupe (caractéristique commune aux diverses calvaties). Jeune, le champignon est blanc, recouvert de minuscules verrues.
@@ -589,9 +605,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lycoperdon mixtecorum et Lycoperdon marginatum sont utilisés pour leurs propriétés hallucinogènes dans le Sud du Mexique par les Mixtèques d'Oaxaca à des fins divinatoires[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lycoperdon mixtecorum et Lycoperdon marginatum sont utilisés pour leurs propriétés hallucinogènes dans le Sud du Mexique par les Mixtèques d'Oaxaca à des fins divinatoires.
 </t>
         </is>
       </c>
